--- a/frontend/static/examples/公司上傳.xlsx
+++ b/frontend/static/examples/公司上傳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Featured\good\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E6ECE-DD88-42B6-8C36-342A369ADDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC79147-111B-4C58-B730-7CB3EB2F2F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,11 +107,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>神腦資訊股份有限公司</t>
+    <t>承新資訊股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>女媧資訊股份有限公司</t>
+    <t>碩方資訊股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/frontend/static/examples/公司上傳.xlsx
+++ b/frontend/static/examples/公司上傳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Featured\good\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC79147-111B-4C58-B730-7CB3EB2F2F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A429514-F3A4-4972-83E9-4E633392FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>公司名稱</t>
   </si>
@@ -54,9 +54,6 @@
     <t>實習內容</t>
   </si>
   <si>
-    <t>實習地點</t>
-  </si>
-  <si>
     <t>實習期間</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
   </si>
   <si>
     <t>協助後端系統維護與測試，參與專案開發。</t>
-  </si>
-  <si>
-    <t>台北市內湖區</t>
   </si>
   <si>
     <t>2025/07/01–2025/08/31</t>
@@ -112,6 +106,18 @@
   </si>
   <si>
     <t>碩方資訊股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬部門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行銷部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服部</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -477,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -526,107 +532,107 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M2" s="3">
         <v>2</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/static/examples/公司上傳.xlsx
+++ b/frontend/static/examples/公司上傳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Featured\good\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A429514-F3A4-4972-83E9-4E633392FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EEAF99-48A2-4CBD-A12B-3CE9597FFE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,14 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>承新資訊股份有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>碩方資訊股份有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>所屬部門</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -118,6 +110,14 @@
   </si>
   <si>
     <t>客服部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>承心資訊股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碩方資訊股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -576,7 +576,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>20</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -620,7 +620,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>20</v>

--- a/frontend/static/examples/公司上傳.xlsx
+++ b/frontend/static/examples/公司上傳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Featured\good\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EEAF99-48A2-4CBD-A12B-3CE9597FFE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F421F916-77CB-4F25-AD05-0A815AAA5B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,11 +113,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>承心資訊股份有限公司</t>
+    <t>神通資訊股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>碩方資訊股份有限公司</t>
+    <t>艾訊資訊股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +484,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/frontend/static/examples/公司上傳.xlsx
+++ b/frontend/static/examples/公司上傳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Featured\good\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F421F916-77CB-4F25-AD05-0A815AAA5B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C387A630-3048-4946-92D0-0688EACB0FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,11 +113,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>神通資訊股份有限公司</t>
+    <t>夢豆資訊股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>艾訊資訊股份有限公司</t>
+    <t>以誠資訊股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/frontend/static/examples/公司上傳.xlsx
+++ b/frontend/static/examples/公司上傳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Featured\good\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C387A630-3048-4946-92D0-0688EACB0FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1440AB8-ADE2-4A6F-B9EC-4505E1371914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>公司名稱</t>
   </si>
@@ -105,19 +105,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>行銷部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>客服部</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>夢豆資訊股份有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以誠資訊股份有限公司</t>
+    <t>艾訊資訊股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市內湖區瑞光路 XXX 號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>軟體工程實習生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>軟體應用實習生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女媧資訊股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神通資訊股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神腦資訊股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -549,13 +565,13 @@
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -570,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>19</v>
@@ -593,7 +609,7 @@
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -614,13 +630,13 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>20</v>
@@ -632,6 +648,138 @@
         <v>2</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/frontend/static/examples/公司上傳.xlsx
+++ b/frontend/static/examples/公司上傳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Featured\good\frontend\static\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1440AB8-ADE2-4A6F-B9EC-4505E1371914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9376558C-1FBC-40B9-9598-AED4C7DA4AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -601,7 +601,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>23</v>
@@ -645,7 +645,7 @@
         <v>21</v>
       </c>
       <c r="M3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>23</v>
@@ -689,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="M4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>23</v>
@@ -733,7 +733,7 @@
         <v>21</v>
       </c>
       <c r="M5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>23</v>
@@ -777,7 +777,7 @@
         <v>21</v>
       </c>
       <c r="M6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>23</v>
